--- a/top10.xlsx
+++ b/top10.xlsx
@@ -410,258 +410,258 @@
   <sheetData>
     <row r="2">
       <c r="D2" t="n">
-        <v>0.0853279225222222</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0.05894208447648264</v>
+        <v>0.07041334342639477</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04608241708369856</v>
+        <v>0.04797523493859824</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03778361022880205</v>
+        <v>0.02895830894619756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01281373516004722</v>
+        <v>0.02246580353441376</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01228625674910907</v>
+        <v>0.01829394143473308</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01163006431602693</v>
+        <v>0.01323214437434325</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008789500507423159</v>
+        <v>0.01176092576316559</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007856514679478559</v>
+        <v>0.00862792854842527</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002571564828410847</v>
+        <v>0.005099076756220588</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="n">
-        <v>0.1371323373015781</v>
+        <v>0.1325850393383319</v>
       </c>
       <c r="E3" t="n">
-        <v>0.122092854643607</v>
+        <v>0.1079664541008314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09059560421252058</v>
+        <v>0.078888674779547</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07723295848792128</v>
+        <v>0.07249779094628027</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05214796029434445</v>
+        <v>0.06188926636040318</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03783951563617091</v>
+        <v>0.03438227535604077</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02918794901671722</v>
+        <v>0.03076011063605294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01773258442020283</v>
+        <v>0.02671287181412706</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01622147465940737</v>
+        <v>0.01255674802124658</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00831223817362018</v>
+        <v>0.01201797757085292</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>0.1088607700286839</v>
+        <v>0.1252538802204898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09708186894901445</v>
+        <v>0.09220490092508168</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07183211623082816</v>
+        <v>0.08425644440512722</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05306599784981337</v>
+        <v>0.05853271115719764</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05168032883884058</v>
+        <v>0.05274148963564715</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04680736616213183</v>
+        <v>0.04976602218325605</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02905239365606684</v>
+        <v>0.04412554978255881</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02336424851894178</v>
+        <v>0.03880635721677952</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01687102385593747</v>
+        <v>0.03811363818917059</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01624854282553629</v>
+        <v>0.0302215199527792</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>0.338176296675803</v>
+        <v>0.07389394815472938</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1498437547074493</v>
+        <v>0.05029031157321232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1176950263157902</v>
+        <v>0.03152511767146845</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1066868713129375</v>
+        <v>0.02729631763557528</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07779370421288033</v>
+        <v>0.02279951778003494</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03839919532148654</v>
+        <v>0.01981697368518611</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03196105551702483</v>
+        <v>0.0182248717934854</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02747038907907304</v>
+        <v>0.0127563159780232</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02021945147408119</v>
+        <v>0.01213280900973993</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0130639840158912</v>
+        <v>0.01007953378295359</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>0.1247772724310806</v>
+        <v>0.1422756470206174</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06291888430127429</v>
+        <v>0.07664390150701915</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04703433968222847</v>
+        <v>0.04927833008543332</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02344178961639158</v>
+        <v>0.03622561162957726</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01364085624584309</v>
+        <v>0.03229690068310458</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01021734695088602</v>
+        <v>0.02770563216877561</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008693704796284204</v>
+        <v>0.02336482422264444</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004649186491225777</v>
+        <v>0.01845156458709344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002567344041013007</v>
+        <v>0.01289548670978024</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00203442984469313</v>
+        <v>0.003777393664017136</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>0.08984237813657367</v>
+        <v>0.02479773459368365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05489711487791191</v>
+        <v>0.01304082499008042</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04873034025229284</v>
+        <v>0.01172413482139901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04033851933109715</v>
+        <v>0.01063244061527601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03243238560562837</v>
+        <v>0.008695637554304985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03088357978893475</v>
+        <v>0.006617483757625714</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02614435355887681</v>
+        <v>0.005836674242501495</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02170216691660569</v>
+        <v>0.005281927151993912</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01763989140298693</v>
+        <v>0.002836593417013911</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01422316802885304</v>
+        <v>0.0006820205419089897</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="n">
-        <v>0.1043881515818554</v>
+        <v>0.2148682666018792</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03609850675914671</v>
+        <v>0.09134798961981698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0287314248312903</v>
+        <v>0.03241629345457932</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01454298904813455</v>
+        <v>0.003014221285307264</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01043757760835923</v>
+        <v>0.002288069467672738</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008061511894953103</v>
+        <v>0.001409942640795962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00593668040699996</v>
+        <v>0.001307212755293344</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003319816253132411</v>
+        <v>0.001033052843865097</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002781489158052579</v>
+        <v>0.0009996847765310947</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002384864159389084</v>
+        <v>0.0006258187470957948</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="n">
-        <v>0.2303537154042053</v>
+        <v>0.2899148734837276</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1144298445752098</v>
+        <v>0.2375687185071166</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08619427714528177</v>
+        <v>0.1145075963377296</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06360462944677024</v>
+        <v>0.0683245362069153</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05824077048849804</v>
+        <v>0.03904429389557523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05256085900838643</v>
+        <v>0.03109561401388604</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04682383727602673</v>
+        <v>0.01611636959576486</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03929075246329995</v>
+        <v>0.01481851811946314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03199664201706436</v>
+        <v>0.01005388331772545</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02397413690905638</v>
+        <v>0.009511010735337578</v>
       </c>
     </row>
     <row r="12">
@@ -669,255 +669,255 @@
         <v/>
       </c>
       <c r="E12" t="n">
-        <v>0.02544614999147483</v>
+        <v>0.06203097056736658</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01737669050068898</v>
+        <v>0.04108439096028241</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01389125763637472</v>
+        <v>0.03333078173482335</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01271997297224691</v>
+        <v>0.02792664020613561</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0111826311571141</v>
+        <v>0.02367566788801564</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005661554878498062</v>
+        <v>0.01860456309597688</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001658392336104905</v>
+        <v>0.01073003161124398</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009020584715058364</v>
+        <v>0.009073553708827085</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0005581528440864681</v>
+        <v>0.001700147684696021</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="n">
-        <v>0.09695015266351714</v>
+        <v>0.2244497744476707</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06442792346064416</v>
+        <v>0.1561256810569812</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05076087924771468</v>
+        <v>0.1410171843903949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04415739650842718</v>
+        <v>0.1228492509437185</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03947468235548066</v>
+        <v>0.09260301761931455</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03847085599041002</v>
+        <v>0.09026846068205077</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03031472074844601</v>
+        <v>0.07406321925958741</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02832165299226008</v>
+        <v>0.06359171324294002</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01090657501736765</v>
+        <v>0.04249726870103906</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0068487042002839</v>
+        <v>0.02069387026916633</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="n">
-        <v>0.1409955561241754</v>
+        <v>0.2277422815062363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1010775039749237</v>
+        <v>0.1435095561551164</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09059564753916298</v>
+        <v>0.09952580326285466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0790706099211092</v>
+        <v>0.08762213995287171</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06655033846046958</v>
+        <v>0.0786772661680082</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04655302485304884</v>
+        <v>0.07642521226122494</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04357933325920135</v>
+        <v>0.04125657426696273</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02550142714792525</v>
+        <v>0.03700923243708562</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01562370268745531</v>
+        <v>0.032392756069663</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01127964988016706</v>
+        <v>0.02799904675536859</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>0.6007874004515456</v>
+        <v>0.5084563684706321</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4194740044466814</v>
+        <v>0.3531722241038123</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2495525934121852</v>
+        <v>0.3126723300974259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2178188159157074</v>
+        <v>0.2135610455857517</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1909031394608594</v>
+        <v>0.1714673307513503</v>
       </c>
       <c r="I15" t="n">
-        <v>0.172816951772807</v>
+        <v>0.1168056211473919</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1167825420723566</v>
+        <v>0.09754672991695533</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08431638039167326</v>
+        <v>0.08176783359287146</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05470494207162355</v>
+        <v>0.07183644867402178</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05019137971224947</v>
+        <v>0.06323900081401035</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="n">
-        <v>0.3223969825690099</v>
+        <v>0.06931721723889361</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2569675658798431</v>
+        <v>0.0661161724665663</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1515706510224749</v>
+        <v>0.05815874145602724</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1109954520929075</v>
+        <v>0.05237067182447641</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1052835922755168</v>
+        <v>0.04472359868205867</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08136994885482002</v>
+        <v>0.03375411107096489</v>
       </c>
       <c r="J17" t="n">
-        <v>0.07635554531683809</v>
+        <v>0.03250152483274241</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06141848159050881</v>
+        <v>0.0196556648574027</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05456210871660063</v>
+        <v>0.0113690980459769</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01047842723221674</v>
+        <v>0.0008678114824108536</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="n">
-        <v>0.1638774432177311</v>
+        <v>0.04865403172819319</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1052477759165695</v>
+        <v>0.02525664625807101</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06771905041973399</v>
+        <v>0.01814428823198546</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05704677760705229</v>
+        <v>0.0144479667784749</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0557888677783383</v>
+        <v>0.01038091776557931</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03679043623500235</v>
+        <v>0.009547235148384839</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0339463223776023</v>
+        <v>0.007553425972375039</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02009253209435172</v>
+        <v>0.004765532720328348</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009129562578334912</v>
+        <v>0.004359738187287653</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005281044720500166</v>
+        <v>0.002017024780149507</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="n">
-        <v>0.3130288745836282</v>
+        <v>0.3009568941253171</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07493099734030922</v>
+        <v>0.1519834383335287</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03460395852157054</v>
+        <v>0.07299485971827747</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007618000595429863</v>
+        <v>0.06186701686948821</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004091531493427944</v>
+        <v>0.03300802475390198</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003564026155048562</v>
+        <v>0.02103635868285938</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002252710053065362</v>
+        <v>0.0201839058999681</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002022405313190749</v>
+        <v>0.01047461446189839</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001875036709123577</v>
+        <v>0.00692573049017386</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001527872798547239</v>
+        <v>0.005707651435638153</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.6341914963985841</v>
+        <v>0.4284734784038229</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2711501855277854</v>
+        <v>0.1937311317075542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1102101851432564</v>
+        <v>0.1539196398950816</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07489639210503411</v>
+        <v>0.1190334589252011</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07116746802650037</v>
+        <v>0.045503434191123</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06761171944227189</v>
+        <v>0.03221705598590047</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06742208968177998</v>
+        <v>0.02857749056857349</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05801751245070134</v>
+        <v>0.02808765107765678</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05168509295029097</v>
+        <v>0.01962623080642865</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04000140061288445</v>
+        <v>0.01491719765718299</v>
       </c>
     </row>
   </sheetData>
